--- a/Assets/06.Table/ChunAbilBase.xlsx
+++ b/Assets/06.Table/ChunAbilBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D71BB07-03DE-460A-9CA0-9B267DAF5B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1816A0D-AEE8-491C-A23E-48B5231563EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2850" windowWidth="24000" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5670" yWindow="2040" windowWidth="21450" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunAbilBase" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>0</v>
